--- a/result/table/RQ4-1.xlsx
+++ b/result/table/RQ4-1.xlsx
@@ -46,25 +46,25 @@
     <t>XGMP</t>
   </si>
   <si>
-    <t>0.7009</t>
-  </si>
-  <si>
-    <t>0.7013</t>
-  </si>
-  <si>
-    <t>0.8095</t>
-  </si>
-  <si>
-    <t>0.7258</t>
-  </si>
-  <si>
-    <t>0.7010</t>
-  </si>
-  <si>
-    <t>0.8080</t>
-  </si>
-  <si>
-    <t>0.8115</t>
+    <t>0.7004</t>
+  </si>
+  <si>
+    <t>0.7008</t>
+  </si>
+  <si>
+    <t>0.8089</t>
+  </si>
+  <si>
+    <t>0.7253</t>
+  </si>
+  <si>
+    <t>0.7006</t>
+  </si>
+  <si>
+    <t>0.8075</t>
+  </si>
+  <si>
+    <t>0.8111</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
